--- a/biology/Botanique/Cyathopsis_albicans/Cyathopsis_albicans.xlsx
+++ b/biology/Botanique/Cyathopsis_albicans/Cyathopsis_albicans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyathopsis albicans est une espèce de plantes à fleurs de la famille des Ericaceae.
 </t>
@@ -513,16 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme un arbrisseau ou un arbuste pouvant aller jusqu'à 1 mètre 50, rarement davantage[1]. Il est trapu et peu ramifié, son port est arrondi[2]. Ses rameaux sont dressés, glabres, courts et épais[1].
-Feuilles
-Les feuilles, coriaces, sont courtement et largement pétiolées. Elles sont fortement imbriquées sur les tiges. Leur marge se distingue par un liseré clair. Leurs nervures sont légèrement saillantes en-dessous[1]. Le dessous des feuilles est glauque-argenté[2].
-Fleurs
-Les fleurs sont petites, sessiles, blanches, et sont concentrées à l'extrémité des tiges[1]. Elles sont blanches à rosées et ont 5 pétales[2].
-Fruits
-Les fruits sont des petites drupes qui deviennent rouges ou rose foncé à maturité[1].
-Écorce
-L'écorce est de couleur gris pâle ou gris brunâtre[1].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme un arbrisseau ou un arbuste pouvant aller jusqu'à 1 mètre 50, rarement davantage. Il est trapu et peu ramifié, son port est arrondi. Ses rameaux sont dressés, glabres, courts et épais.
 </t>
         </is>
       </c>
@@ -548,12 +557,162 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles, coriaces, sont courtement et largement pétiolées. Elles sont fortement imbriquées sur les tiges. Leur marge se distingue par un liseré clair. Leurs nervures sont légèrement saillantes en-dessous. Le dessous des feuilles est glauque-argenté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cyathopsis_albicans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyathopsis_albicans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont petites, sessiles, blanches, et sont concentrées à l'extrémité des tiges. Elles sont blanches à rosées et ont 5 pétales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cyathopsis_albicans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyathopsis_albicans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des petites drupes qui deviennent rouges ou rose foncé à maturité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cyathopsis_albicans</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyathopsis_albicans</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Écorce</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce est de couleur gris pâle ou gris brunâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyathopsis_albicans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyathopsis_albicans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la Nouvelle-Calédonie. On la trouve sur la Grande Terre et sur l'Ile des Pins (pic N'Ga[2]), dans le maquis plus ou moins ouvert[1]. Elle pousse de manière non grégaire sur sol très érodé, sur substrat ultramafique, moyenne altitude[1],[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la Nouvelle-Calédonie. On la trouve sur la Grande Terre et sur l'Ile des Pins (pic N'Ga), dans le maquis plus ou moins ouvert. Elle pousse de manière non grégaire sur sol très érodé, sur substrat ultramafique, moyenne altitude,.
 </t>
         </is>
       </c>
